--- a/ref/ingestion/parameters_demo/model_input_variables_ip_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ip_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CED4602-16F8-D347-B6FE-19BD55D7CB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C02660-6598-B84F-A46D-68A1E8A69A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8100" yWindow="460" windowWidth="22160" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="F143" sqref="F143"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14989,112 +14989,112 @@
         <v>1</v>
       </c>
       <c r="J115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="K115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="L115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="M115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="N115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="O115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="P115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="Q115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="R115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="S115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="T115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="U115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="V115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="W115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="X115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="Y115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="Z115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AA115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AB115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AC115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AD115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AE115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AF115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AG115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AH115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AI115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AJ115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AK115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AL115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AM115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AN115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AO115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AP115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AQ115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AR115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
       <c r="AS115">
-        <v>100000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.2">
@@ -19381,112 +19381,112 @@
         <v>1</v>
       </c>
       <c r="J151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O151">
-        <v>0.95</v>
+        <v>3</v>
       </c>
       <c r="P151">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="Q151">
-        <v>0.85</v>
+        <v>3</v>
       </c>
       <c r="R151">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="S151">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="T151">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="U151">
-        <v>0.65</v>
+        <v>3</v>
       </c>
       <c r="V151">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="W151">
-        <v>0.55000000000000004</v>
+        <v>3</v>
       </c>
       <c r="X151">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="Y151">
-        <v>0.45</v>
+        <v>3</v>
       </c>
       <c r="Z151">
-        <v>0.39999999999999902</v>
+        <v>3</v>
       </c>
       <c r="AA151">
-        <v>0.34999999999999898</v>
+        <v>3</v>
       </c>
       <c r="AB151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AC151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AD151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AE151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AF151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AG151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AH151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AI151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AJ151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AK151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AL151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AM151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AN151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AO151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AP151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AQ151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AR151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
       <c r="AS151">
-        <v>0.29999999999999899</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:45" x14ac:dyDescent="0.2">
@@ -19503,112 +19503,112 @@
         <v>1</v>
       </c>
       <c r="J152">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K152">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="L152">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="M152">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="N152">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="O152">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="P152">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q152">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="R152">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="S152">
-        <v>0.35</v>
+        <v>0.4</v>
       </c>
       <c r="T152">
         <v>0.4</v>
       </c>
       <c r="U152">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="V152">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W152">
-        <v>0.55000000000000004</v>
+        <v>0.4</v>
       </c>
       <c r="X152">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="Y152">
-        <v>0.65</v>
+        <v>0.4</v>
       </c>
       <c r="Z152">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AA152">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="AB152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AE152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AF152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AG152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AH152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AI152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AJ152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AK152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AL152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AM152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AN152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AO152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AP152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AQ152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AR152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AS152">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="153" spans="1:45" x14ac:dyDescent="0.2">

--- a/ref/ingestion/parameters_demo/model_input_variables_ip_demo.xlsx
+++ b/ref/ingestion/parameters_demo/model_input_variables_ip_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsyme/Documents/Projects/git_jbus/lac_decarbonization/ref/ingestion/parameters_demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C02660-6598-B84F-A46D-68A1E8A69A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2742763B-CFA6-B240-B573-331549FE3517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8100" yWindow="460" windowWidth="22160" windowHeight="20400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="K122" sqref="K122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -14989,112 +14989,112 @@
         <v>1</v>
       </c>
       <c r="J115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="K115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="L115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="M115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="N115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="O115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="P115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="Q115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="R115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="S115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="T115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="U115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="V115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="W115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="X115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="Y115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="Z115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AA115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AB115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AC115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AD115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AE115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AF115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AG115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AH115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AI115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AJ115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AK115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AL115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AM115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AN115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AO115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AP115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AQ115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AR115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
       <c r="AS115">
-        <v>4500000</v>
+        <v>1424850.75</v>
       </c>
     </row>
     <row r="116" spans="1:45" x14ac:dyDescent="0.2">
